--- a/赛事文件/计分报名表.xlsx
+++ b/赛事文件/计分报名表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MEDC2019\赛事文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="410">
   <si>
     <t>序号</t>
   </si>
@@ -1318,6 +1318,26 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,6 +1783,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1802,7 +1828,22 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1812,6 +1853,26 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1830,39 +1891,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1873,9 +1902,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2171,10 +2197,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:A11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="6" totalsRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" headerRowCellStyle="输出">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:A11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" totalsRowDxfId="2" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="输出">
   <autoFilter ref="A1:A11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="队伍名称/队长" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="队伍名称/队长" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2477,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -2488,10 +2514,17 @@
     <col min="1" max="1" width="4.15234375" style="17" customWidth="1"/>
     <col min="2" max="2" width="17.4609375" style="17" customWidth="1"/>
     <col min="3" max="3" width="14.84375" style="17" customWidth="1"/>
-    <col min="4" max="9" width="8.84375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="8.84375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.15234375" style="17" customWidth="1"/>
+    <col min="7" max="8" width="8.84375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.23046875" style="17" customWidth="1"/>
     <col min="10" max="10" width="12.15234375" style="17" customWidth="1"/>
     <col min="11" max="11" width="18.15234375" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="8.84375" style="17"/>
+    <col min="12" max="13" width="8.84375" style="17"/>
+    <col min="14" max="14" width="12.3046875" style="17" customWidth="1"/>
+    <col min="15" max="18" width="8.84375" style="17"/>
+    <col min="19" max="19" width="12.61328125" style="17" customWidth="1"/>
+    <col min="20" max="16384" width="8.84375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
@@ -3489,7 +3522,237 @@
         <v>224</v>
       </c>
     </row>
+    <row r="19" spans="1:21" ht="15">
+      <c r="E19" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15">
+      <c r="E20" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:21" ht="15">
+      <c r="E21" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:21" ht="15">
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="17">
+        <v>667</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15">
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="17">
+        <v>667</v>
+      </c>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:21" ht="15">
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="17">
+        <v>666</v>
+      </c>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:21" ht="15">
+      <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15">
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:21" ht="15">
+      <c r="E27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="17">
+        <v>334</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15">
+      <c r="E28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="17">
+        <v>333</v>
+      </c>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:21" ht="15">
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="17">
+        <v>333</v>
+      </c>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:21" ht="15">
+      <c r="E30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="17">
+        <v>334</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15">
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="17">
+        <v>333</v>
+      </c>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:21" ht="15">
+      <c r="E32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="17">
+        <v>333</v>
+      </c>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="5:8" ht="15">
+      <c r="E33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="17">
+        <v>334</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="15">
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="17">
+        <v>333</v>
+      </c>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="5:8" ht="15">
+      <c r="E35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="17">
+        <v>333</v>
+      </c>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="G36" s="17">
+        <f>SUM(G19:G35)</f>
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
